--- a/demo/deadband/cases/IL200_rted.xlsx
+++ b/demo/deadband/cases/IL200_rted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/demo/demo/deadband/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06662491-4124-B743-89E3-348C0901B7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9709C91-2E9F-FE4E-B16C-7F36AD5F1A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1700" windowWidth="27220" windowHeight="17000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -12132,8 +12132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4D1A9F-097C-9045-8BCA-C5C0C0FA5466}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12175,10 +12175,10 @@
         <v>697</v>
       </c>
       <c r="E2" s="3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -18572,9 +18572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
